--- a/VersionRecords/Version3.0.2/版本Bug和特性计划及评审表v3.0.2_架构组.xlsx
+++ b/VersionRecords/Version3.0.2/版本Bug和特性计划及评审表v3.0.2_架构组.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28050" windowHeight="12495"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28050" windowHeight="12495"/>
   </bookViews>
   <sheets>
     <sheet name="版本3.0.1 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="48">
   <si>
     <t>No</t>
   </si>
@@ -145,18 +145,32 @@
   <si>
     <t>修正负责人</t>
   </si>
+  <si>
+    <t>余星赞</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pass</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>余星赞</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="29">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -194,166 +208,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -362,8 +225,13 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -378,198 +246,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="22"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="16">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -666,435 +348,151 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="56">
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="35">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="9" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="9" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="9" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="9" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="5" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="9" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="9" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="5" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="9" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="9" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="9" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="9" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="9" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="4" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="4" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="4" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="9" applyFill="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="5" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="9" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="56">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="8">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="7"/>
+    <cellStyle name="常规 3" xfId="6"/>
+    <cellStyle name="常规 3 12" xfId="4"/>
+    <cellStyle name="常规 4" xfId="5"/>
+    <cellStyle name="常规 6" xfId="3"/>
+    <cellStyle name="常规 9" xfId="2"/>
     <cellStyle name="甘特图" xfId="1"/>
-    <cellStyle name="常规 9" xfId="2"/>
-    <cellStyle name="常规 6" xfId="3"/>
-    <cellStyle name="常规 3 12" xfId="4"/>
-    <cellStyle name="60% - Accent6" xfId="5" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="6" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="7" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="8" builtinId="49"/>
-    <cellStyle name="常规" xfId="9"/>
-    <cellStyle name="40% - Accent5" xfId="10" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="11" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="12" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="13" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="14" builtinId="43"/>
-    <cellStyle name="常规 3" xfId="15"/>
-    <cellStyle name="Accent4" xfId="16" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="17" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="18" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="19" builtinId="36"/>
-    <cellStyle name="常规 2" xfId="20"/>
-    <cellStyle name="Accent3" xfId="21" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="22" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="24" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="25" builtinId="31"/>
-    <cellStyle name="Accent1" xfId="26" builtinId="29"/>
-    <cellStyle name="Comma[0]" xfId="27" builtinId="6"/>
-    <cellStyle name="Neutral" xfId="28" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="29" builtinId="32"/>
-    <cellStyle name="Bad" xfId="30" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42"/>
-    <cellStyle name="Total" xfId="32" builtinId="25"/>
-    <cellStyle name="Output" xfId="33" builtinId="21"/>
-    <cellStyle name="Currency" xfId="34" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="35" builtinId="38"/>
-    <cellStyle name="Note" xfId="36" builtinId="10"/>
-    <cellStyle name="Input" xfId="37" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="38" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="39" builtinId="22"/>
-    <cellStyle name="Good" xfId="40" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="41" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="42" builtinId="53"/>
-    <cellStyle name="60% - Accent3" xfId="43" builtinId="40"/>
-    <cellStyle name="Currency[0]" xfId="44" builtinId="7"/>
-    <cellStyle name="Heading 1" xfId="45" builtinId="16"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="Title" xfId="47" builtinId="15"/>
-    <cellStyle name="Warning Text" xfId="48" builtinId="11"/>
-    <cellStyle name="20% - Accent1" xfId="49" builtinId="30"/>
-    <cellStyle name="Hyperlink" xfId="50" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="52" builtinId="17"/>
-    <cellStyle name="Comma" xfId="53" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="54" builtinId="23"/>
-    <cellStyle name="Percent" xfId="55" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1103,7 +501,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="4C4C4C"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -1426,15 +824,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T214"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.5" style="10" customWidth="1"/>
     <col min="2" max="2" width="29" style="11" customWidth="1"/>
@@ -1457,7 +854,7 @@
     <col min="21" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="1" ht="26.25" spans="1:19">
+    <row r="1" spans="1:20" s="8" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -1516,7 +913,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" s="9" customFormat="1" ht="27" spans="1:20">
+    <row r="2" spans="1:20" s="9" customFormat="1" ht="33" x14ac:dyDescent="0.35">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -1548,17 +945,25 @@
       <c r="K2" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="26"/>
+      <c r="L2" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="M2" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" s="23">
+        <v>42444</v>
+      </c>
+      <c r="O2" s="26" t="s">
+        <v>45</v>
+      </c>
       <c r="P2" s="29"/>
       <c r="Q2" s="29"/>
       <c r="R2" s="30"/>
       <c r="S2" s="31"/>
       <c r="T2" s="32"/>
     </row>
-    <row r="3" s="9" customFormat="1" ht="20.25" customHeight="1" spans="1:20">
+    <row r="3" spans="1:20" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="14">
         <v>2</v>
       </c>
@@ -1590,17 +995,25 @@
       <c r="K3" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="16"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="26"/>
+      <c r="L3" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="M3" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="N3" s="23">
+        <v>42444</v>
+      </c>
+      <c r="O3" s="26" t="s">
+        <v>46</v>
+      </c>
       <c r="P3" s="29"/>
       <c r="Q3" s="29"/>
       <c r="R3" s="33"/>
       <c r="S3" s="31"/>
       <c r="T3" s="32"/>
     </row>
-    <row r="4" s="9" customFormat="1" ht="23.25" customHeight="1" spans="1:20">
+    <row r="4" spans="1:20" s="9" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="14">
         <v>3</v>
       </c>
@@ -1642,7 +1055,7 @@
       <c r="S4" s="31"/>
       <c r="T4" s="32"/>
     </row>
-    <row r="5" s="9" customFormat="1" ht="81" spans="1:20">
+    <row r="5" spans="1:20" s="9" customFormat="1" ht="99" x14ac:dyDescent="0.35">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -1674,17 +1087,25 @@
       <c r="K5" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="L5" s="16"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="26"/>
+      <c r="L5" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="M5" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="N5" s="23">
+        <v>42444</v>
+      </c>
+      <c r="O5" s="26" t="s">
+        <v>46</v>
+      </c>
       <c r="P5" s="29"/>
       <c r="Q5" s="29"/>
       <c r="R5" s="33"/>
       <c r="S5" s="31"/>
       <c r="T5" s="32"/>
     </row>
-    <row r="6" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="6" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A6" s="14"/>
       <c r="B6" s="15"/>
       <c r="C6" s="16"/>
@@ -1706,7 +1127,7 @@
       <c r="S6" s="31"/>
       <c r="T6" s="32"/>
     </row>
-    <row r="7" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="7" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A7" s="14"/>
       <c r="B7" s="15"/>
       <c r="C7" s="16"/>
@@ -1728,7 +1149,7 @@
       <c r="S7" s="31"/>
       <c r="T7" s="32"/>
     </row>
-    <row r="8" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="8" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A8" s="14"/>
       <c r="B8" s="15"/>
       <c r="C8" s="16"/>
@@ -1750,7 +1171,7 @@
       <c r="S8" s="31"/>
       <c r="T8" s="32"/>
     </row>
-    <row r="9" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="9" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A9" s="14"/>
       <c r="B9" s="15"/>
       <c r="C9" s="16"/>
@@ -1772,7 +1193,7 @@
       <c r="S9" s="31"/>
       <c r="T9" s="32"/>
     </row>
-    <row r="10" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="10" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A10" s="14"/>
       <c r="B10" s="15"/>
       <c r="C10" s="16"/>
@@ -1794,7 +1215,7 @@
       <c r="S10" s="31"/>
       <c r="T10" s="32"/>
     </row>
-    <row r="11" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="11" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A11" s="14"/>
       <c r="B11" s="15"/>
       <c r="C11" s="16"/>
@@ -1816,7 +1237,7 @@
       <c r="S11" s="31"/>
       <c r="T11" s="32"/>
     </row>
-    <row r="12" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="12" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A12" s="14"/>
       <c r="B12" s="15"/>
       <c r="C12" s="16"/>
@@ -1838,7 +1259,7 @@
       <c r="S12" s="31"/>
       <c r="T12" s="32"/>
     </row>
-    <row r="13" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="13" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A13" s="14"/>
       <c r="B13" s="15"/>
       <c r="C13" s="16"/>
@@ -1860,7 +1281,7 @@
       <c r="S13" s="31"/>
       <c r="T13" s="32"/>
     </row>
-    <row r="14" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="14" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A14" s="14"/>
       <c r="B14" s="17"/>
       <c r="C14" s="16"/>
@@ -1882,7 +1303,7 @@
       <c r="S14" s="31"/>
       <c r="T14" s="32"/>
     </row>
-    <row r="15" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="15" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A15" s="14"/>
       <c r="B15" s="17"/>
       <c r="C15" s="16"/>
@@ -1904,7 +1325,7 @@
       <c r="S15" s="31"/>
       <c r="T15" s="32"/>
     </row>
-    <row r="16" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="16" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="14"/>
       <c r="B16" s="18"/>
       <c r="C16" s="16"/>
@@ -1926,7 +1347,7 @@
       <c r="S16" s="31"/>
       <c r="T16" s="32"/>
     </row>
-    <row r="17" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="17" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A17" s="14"/>
       <c r="B17" s="18"/>
       <c r="C17" s="16"/>
@@ -1948,7 +1369,7 @@
       <c r="S17" s="31"/>
       <c r="T17" s="32"/>
     </row>
-    <row r="18" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="18" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A18" s="14"/>
       <c r="B18" s="18"/>
       <c r="C18" s="16"/>
@@ -1970,7 +1391,7 @@
       <c r="S18" s="31"/>
       <c r="T18" s="32"/>
     </row>
-    <row r="19" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="19" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A19" s="14"/>
       <c r="B19" s="18"/>
       <c r="C19" s="16"/>
@@ -1992,7 +1413,7 @@
       <c r="S19" s="31"/>
       <c r="T19" s="32"/>
     </row>
-    <row r="20" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="20" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A20" s="14"/>
       <c r="B20" s="18"/>
       <c r="C20" s="16"/>
@@ -2014,7 +1435,7 @@
       <c r="S20" s="31"/>
       <c r="T20" s="32"/>
     </row>
-    <row r="21" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="21" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A21" s="14"/>
       <c r="B21" s="18"/>
       <c r="C21" s="16"/>
@@ -2036,7 +1457,7 @@
       <c r="S21" s="31"/>
       <c r="T21" s="32"/>
     </row>
-    <row r="22" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="22" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A22" s="14"/>
       <c r="B22" s="18"/>
       <c r="C22" s="16"/>
@@ -2058,7 +1479,7 @@
       <c r="S22" s="31"/>
       <c r="T22" s="32"/>
     </row>
-    <row r="23" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="23" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A23" s="14"/>
       <c r="B23" s="18"/>
       <c r="C23" s="16"/>
@@ -2080,7 +1501,7 @@
       <c r="S23" s="31"/>
       <c r="T23" s="32"/>
     </row>
-    <row r="24" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="24" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A24" s="14"/>
       <c r="B24" s="18"/>
       <c r="C24" s="16"/>
@@ -2102,7 +1523,7 @@
       <c r="S24" s="31"/>
       <c r="T24" s="32"/>
     </row>
-    <row r="25" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="25" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A25" s="14"/>
       <c r="B25" s="18"/>
       <c r="C25" s="16"/>
@@ -2124,7 +1545,7 @@
       <c r="S25" s="31"/>
       <c r="T25" s="32"/>
     </row>
-    <row r="26" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="26" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A26" s="14"/>
       <c r="B26" s="18"/>
       <c r="C26" s="16"/>
@@ -2146,7 +1567,7 @@
       <c r="S26" s="31"/>
       <c r="T26" s="32"/>
     </row>
-    <row r="27" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="27" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A27" s="14"/>
       <c r="B27" s="18"/>
       <c r="C27" s="16"/>
@@ -2168,7 +1589,7 @@
       <c r="S27" s="31"/>
       <c r="T27" s="32"/>
     </row>
-    <row r="28" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="28" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A28" s="14"/>
       <c r="B28" s="18"/>
       <c r="C28" s="16"/>
@@ -2190,7 +1611,7 @@
       <c r="S28" s="31"/>
       <c r="T28" s="32"/>
     </row>
-    <row r="29" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="29" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A29" s="14"/>
       <c r="B29" s="18"/>
       <c r="C29" s="16"/>
@@ -2212,7 +1633,7 @@
       <c r="S29" s="31"/>
       <c r="T29" s="32"/>
     </row>
-    <row r="30" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="30" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A30" s="14"/>
       <c r="B30" s="18"/>
       <c r="C30" s="16"/>
@@ -2234,7 +1655,7 @@
       <c r="S30" s="31"/>
       <c r="T30" s="32"/>
     </row>
-    <row r="31" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="31" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A31" s="14"/>
       <c r="B31" s="18"/>
       <c r="C31" s="16"/>
@@ -2256,7 +1677,7 @@
       <c r="S31" s="31"/>
       <c r="T31" s="32"/>
     </row>
-    <row r="32" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="32" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A32" s="14"/>
       <c r="B32" s="18"/>
       <c r="C32" s="16"/>
@@ -2278,7 +1699,7 @@
       <c r="S32" s="31"/>
       <c r="T32" s="32"/>
     </row>
-    <row r="33" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="33" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A33" s="14"/>
       <c r="B33" s="18"/>
       <c r="C33" s="16"/>
@@ -2300,7 +1721,7 @@
       <c r="S33" s="31"/>
       <c r="T33" s="32"/>
     </row>
-    <row r="34" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="34" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A34" s="14"/>
       <c r="B34" s="18"/>
       <c r="C34" s="16"/>
@@ -2322,7 +1743,7 @@
       <c r="S34" s="31"/>
       <c r="T34" s="32"/>
     </row>
-    <row r="35" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="35" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A35" s="14"/>
       <c r="B35" s="18"/>
       <c r="C35" s="16"/>
@@ -2344,7 +1765,7 @@
       <c r="S35" s="31"/>
       <c r="T35" s="32"/>
     </row>
-    <row r="36" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="36" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A36" s="14"/>
       <c r="B36" s="18"/>
       <c r="C36" s="16"/>
@@ -2366,7 +1787,7 @@
       <c r="S36" s="31"/>
       <c r="T36" s="32"/>
     </row>
-    <row r="37" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="37" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A37" s="14"/>
       <c r="B37" s="18"/>
       <c r="C37" s="16"/>
@@ -2388,7 +1809,7 @@
       <c r="S37" s="31"/>
       <c r="T37" s="32"/>
     </row>
-    <row r="38" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="38" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A38" s="14"/>
       <c r="B38" s="18"/>
       <c r="C38" s="16"/>
@@ -2410,7 +1831,7 @@
       <c r="S38" s="31"/>
       <c r="T38" s="32"/>
     </row>
-    <row r="39" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="39" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A39" s="14"/>
       <c r="B39" s="18"/>
       <c r="C39" s="16"/>
@@ -2432,7 +1853,7 @@
       <c r="S39" s="31"/>
       <c r="T39" s="32"/>
     </row>
-    <row r="40" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="40" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A40" s="14"/>
       <c r="B40" s="18"/>
       <c r="C40" s="16"/>
@@ -2454,7 +1875,7 @@
       <c r="S40" s="31"/>
       <c r="T40" s="32"/>
     </row>
-    <row r="41" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="41" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A41" s="14"/>
       <c r="B41" s="18"/>
       <c r="C41" s="16"/>
@@ -2476,7 +1897,7 @@
       <c r="S41" s="31"/>
       <c r="T41" s="32"/>
     </row>
-    <row r="42" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="42" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A42" s="14"/>
       <c r="B42" s="18"/>
       <c r="C42" s="16"/>
@@ -2498,7 +1919,7 @@
       <c r="S42" s="31"/>
       <c r="T42" s="32"/>
     </row>
-    <row r="43" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="43" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A43" s="14"/>
       <c r="B43" s="18"/>
       <c r="C43" s="16"/>
@@ -2520,7 +1941,7 @@
       <c r="S43" s="31"/>
       <c r="T43" s="32"/>
     </row>
-    <row r="44" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="44" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A44" s="14"/>
       <c r="B44" s="18"/>
       <c r="C44" s="16"/>
@@ -2542,7 +1963,7 @@
       <c r="S44" s="31"/>
       <c r="T44" s="32"/>
     </row>
-    <row r="45" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="45" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A45" s="14"/>
       <c r="B45" s="18"/>
       <c r="C45" s="16"/>
@@ -2564,7 +1985,7 @@
       <c r="S45" s="31"/>
       <c r="T45" s="32"/>
     </row>
-    <row r="46" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="46" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A46" s="14"/>
       <c r="B46" s="18"/>
       <c r="C46" s="16"/>
@@ -2586,7 +2007,7 @@
       <c r="S46" s="31"/>
       <c r="T46" s="32"/>
     </row>
-    <row r="47" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="47" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A47" s="14"/>
       <c r="B47" s="18"/>
       <c r="C47" s="16"/>
@@ -2608,7 +2029,7 @@
       <c r="S47" s="31"/>
       <c r="T47" s="32"/>
     </row>
-    <row r="48" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="48" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A48" s="14"/>
       <c r="B48" s="18"/>
       <c r="C48" s="16"/>
@@ -2630,7 +2051,7 @@
       <c r="S48" s="31"/>
       <c r="T48" s="32"/>
     </row>
-    <row r="49" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="49" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A49" s="14"/>
       <c r="B49" s="18"/>
       <c r="C49" s="16"/>
@@ -2652,7 +2073,7 @@
       <c r="S49" s="31"/>
       <c r="T49" s="32"/>
     </row>
-    <row r="50" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="50" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A50" s="14"/>
       <c r="B50" s="18"/>
       <c r="C50" s="16"/>
@@ -2674,7 +2095,7 @@
       <c r="S50" s="31"/>
       <c r="T50" s="32"/>
     </row>
-    <row r="51" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="51" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A51" s="14"/>
       <c r="B51" s="18"/>
       <c r="C51" s="16"/>
@@ -2696,7 +2117,7 @@
       <c r="S51" s="31"/>
       <c r="T51" s="32"/>
     </row>
-    <row r="52" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="52" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A52" s="14"/>
       <c r="B52" s="18"/>
       <c r="C52" s="16"/>
@@ -2718,7 +2139,7 @@
       <c r="S52" s="31"/>
       <c r="T52" s="32"/>
     </row>
-    <row r="53" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="53" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A53" s="14"/>
       <c r="B53" s="18"/>
       <c r="C53" s="16"/>
@@ -2740,7 +2161,7 @@
       <c r="S53" s="31"/>
       <c r="T53" s="32"/>
     </row>
-    <row r="54" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="54" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A54" s="14"/>
       <c r="B54" s="18"/>
       <c r="C54" s="16"/>
@@ -2762,7 +2183,7 @@
       <c r="S54" s="31"/>
       <c r="T54" s="32"/>
     </row>
-    <row r="55" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="55" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A55" s="14"/>
       <c r="B55" s="18"/>
       <c r="C55" s="16"/>
@@ -2784,7 +2205,7 @@
       <c r="S55" s="31"/>
       <c r="T55" s="32"/>
     </row>
-    <row r="56" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="56" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A56" s="14"/>
       <c r="B56" s="18"/>
       <c r="C56" s="16"/>
@@ -2806,7 +2227,7 @@
       <c r="S56" s="31"/>
       <c r="T56" s="32"/>
     </row>
-    <row r="57" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="57" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A57" s="19"/>
       <c r="B57" s="20"/>
       <c r="C57" s="19"/>
@@ -2828,7 +2249,7 @@
       <c r="S57" s="20"/>
       <c r="T57" s="32"/>
     </row>
-    <row r="58" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="58" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A58" s="19"/>
       <c r="B58" s="20"/>
       <c r="C58" s="19"/>
@@ -2850,7 +2271,7 @@
       <c r="S58" s="20"/>
       <c r="T58" s="32"/>
     </row>
-    <row r="59" ht="13.5" spans="1:19">
+    <row r="59" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A59" s="21"/>
       <c r="B59" s="22"/>
       <c r="C59" s="21"/>
@@ -2871,7 +2292,7 @@
       <c r="R59" s="21"/>
       <c r="S59" s="22"/>
     </row>
-    <row r="60" ht="13.5" spans="1:19">
+    <row r="60" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A60" s="21"/>
       <c r="B60" s="22"/>
       <c r="C60" s="21"/>
@@ -2892,7 +2313,7 @@
       <c r="R60" s="21"/>
       <c r="S60" s="22"/>
     </row>
-    <row r="61" ht="13.5" spans="1:19">
+    <row r="61" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A61" s="21"/>
       <c r="B61" s="22"/>
       <c r="C61" s="21"/>
@@ -2913,7 +2334,7 @@
       <c r="R61" s="21"/>
       <c r="S61" s="22"/>
     </row>
-    <row r="62" ht="13.5" spans="1:19">
+    <row r="62" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A62" s="21"/>
       <c r="B62" s="22"/>
       <c r="C62" s="21"/>
@@ -2934,7 +2355,7 @@
       <c r="R62" s="21"/>
       <c r="S62" s="22"/>
     </row>
-    <row r="63" ht="13.5" spans="1:19">
+    <row r="63" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A63" s="21"/>
       <c r="B63" s="22"/>
       <c r="C63" s="21"/>
@@ -2955,7 +2376,7 @@
       <c r="R63" s="21"/>
       <c r="S63" s="22"/>
     </row>
-    <row r="64" ht="13.5" spans="1:19">
+    <row r="64" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A64" s="21"/>
       <c r="B64" s="22"/>
       <c r="C64" s="21"/>
@@ -2976,7 +2397,7 @@
       <c r="R64" s="21"/>
       <c r="S64" s="22"/>
     </row>
-    <row r="65" ht="13.5" spans="1:19">
+    <row r="65" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A65" s="21"/>
       <c r="B65" s="22"/>
       <c r="C65" s="21"/>
@@ -2997,7 +2418,7 @@
       <c r="R65" s="21"/>
       <c r="S65" s="22"/>
     </row>
-    <row r="66" ht="13.5" spans="1:19">
+    <row r="66" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A66" s="21"/>
       <c r="B66" s="22"/>
       <c r="C66" s="21"/>
@@ -3018,7 +2439,7 @@
       <c r="R66" s="21"/>
       <c r="S66" s="22"/>
     </row>
-    <row r="67" ht="13.5" spans="1:19">
+    <row r="67" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A67" s="21"/>
       <c r="B67" s="22"/>
       <c r="C67" s="21"/>
@@ -3039,7 +2460,7 @@
       <c r="R67" s="21"/>
       <c r="S67" s="22"/>
     </row>
-    <row r="68" ht="13.5" spans="1:19">
+    <row r="68" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A68" s="21"/>
       <c r="B68" s="22"/>
       <c r="C68" s="21"/>
@@ -3060,7 +2481,7 @@
       <c r="R68" s="21"/>
       <c r="S68" s="22"/>
     </row>
-    <row r="69" ht="13.5" spans="1:19">
+    <row r="69" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A69" s="21"/>
       <c r="B69" s="22"/>
       <c r="C69" s="21"/>
@@ -3081,7 +2502,7 @@
       <c r="R69" s="21"/>
       <c r="S69" s="22"/>
     </row>
-    <row r="70" ht="13.5" spans="1:19">
+    <row r="70" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A70" s="21"/>
       <c r="B70" s="22"/>
       <c r="C70" s="21"/>
@@ -3102,7 +2523,7 @@
       <c r="R70" s="21"/>
       <c r="S70" s="22"/>
     </row>
-    <row r="71" ht="13.5" spans="1:19">
+    <row r="71" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A71" s="21"/>
       <c r="B71" s="22"/>
       <c r="C71" s="21"/>
@@ -3123,7 +2544,7 @@
       <c r="R71" s="21"/>
       <c r="S71" s="22"/>
     </row>
-    <row r="72" ht="13.5" spans="1:19">
+    <row r="72" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A72" s="21"/>
       <c r="B72" s="22"/>
       <c r="C72" s="21"/>
@@ -3144,7 +2565,7 @@
       <c r="R72" s="21"/>
       <c r="S72" s="22"/>
     </row>
-    <row r="73" ht="13.5" spans="1:19">
+    <row r="73" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A73" s="21"/>
       <c r="B73" s="22"/>
       <c r="C73" s="21"/>
@@ -3165,7 +2586,7 @@
       <c r="R73" s="21"/>
       <c r="S73" s="22"/>
     </row>
-    <row r="74" ht="13.5" spans="1:19">
+    <row r="74" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A74" s="21"/>
       <c r="B74" s="22"/>
       <c r="C74" s="21"/>
@@ -3186,7 +2607,7 @@
       <c r="R74" s="21"/>
       <c r="S74" s="22"/>
     </row>
-    <row r="75" ht="13.5" spans="1:19">
+    <row r="75" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A75" s="21"/>
       <c r="B75" s="22"/>
       <c r="C75" s="21"/>
@@ -3207,7 +2628,7 @@
       <c r="R75" s="21"/>
       <c r="S75" s="22"/>
     </row>
-    <row r="76" ht="13.5" spans="1:19">
+    <row r="76" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A76" s="21"/>
       <c r="B76" s="22"/>
       <c r="C76" s="21"/>
@@ -3228,7 +2649,7 @@
       <c r="R76" s="21"/>
       <c r="S76" s="22"/>
     </row>
-    <row r="77" ht="13.5" spans="1:19">
+    <row r="77" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A77" s="21"/>
       <c r="B77" s="22"/>
       <c r="C77" s="21"/>
@@ -3249,7 +2670,7 @@
       <c r="R77" s="21"/>
       <c r="S77" s="22"/>
     </row>
-    <row r="78" ht="13.5" spans="1:19">
+    <row r="78" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A78" s="21"/>
       <c r="B78" s="22"/>
       <c r="C78" s="21"/>
@@ -3270,7 +2691,7 @@
       <c r="R78" s="21"/>
       <c r="S78" s="22"/>
     </row>
-    <row r="79" ht="13.5" spans="1:19">
+    <row r="79" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A79" s="21"/>
       <c r="B79" s="22"/>
       <c r="C79" s="21"/>
@@ -3291,7 +2712,7 @@
       <c r="R79" s="21"/>
       <c r="S79" s="22"/>
     </row>
-    <row r="80" ht="13.5" spans="1:19">
+    <row r="80" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A80" s="21"/>
       <c r="B80" s="22"/>
       <c r="C80" s="21"/>
@@ -3312,7 +2733,7 @@
       <c r="R80" s="21"/>
       <c r="S80" s="22"/>
     </row>
-    <row r="81" ht="13.5" spans="1:19">
+    <row r="81" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A81" s="21"/>
       <c r="B81" s="22"/>
       <c r="C81" s="21"/>
@@ -3333,7 +2754,7 @@
       <c r="R81" s="21"/>
       <c r="S81" s="22"/>
     </row>
-    <row r="82" ht="13.5" spans="1:19">
+    <row r="82" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A82" s="21"/>
       <c r="B82" s="22"/>
       <c r="C82" s="21"/>
@@ -3354,7 +2775,7 @@
       <c r="R82" s="21"/>
       <c r="S82" s="22"/>
     </row>
-    <row r="83" ht="13.5" spans="1:19">
+    <row r="83" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A83" s="21"/>
       <c r="B83" s="22"/>
       <c r="C83" s="21"/>
@@ -3375,7 +2796,7 @@
       <c r="R83" s="21"/>
       <c r="S83" s="22"/>
     </row>
-    <row r="84" ht="13.5" spans="1:19">
+    <row r="84" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A84" s="21"/>
       <c r="B84" s="22"/>
       <c r="C84" s="21"/>
@@ -3396,7 +2817,7 @@
       <c r="R84" s="21"/>
       <c r="S84" s="22"/>
     </row>
-    <row r="85" ht="13.5" spans="1:19">
+    <row r="85" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A85" s="21"/>
       <c r="B85" s="22"/>
       <c r="C85" s="21"/>
@@ -3417,7 +2838,7 @@
       <c r="R85" s="21"/>
       <c r="S85" s="22"/>
     </row>
-    <row r="86" ht="13.5" spans="1:19">
+    <row r="86" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A86" s="21"/>
       <c r="B86" s="22"/>
       <c r="C86" s="21"/>
@@ -3438,7 +2859,7 @@
       <c r="R86" s="21"/>
       <c r="S86" s="22"/>
     </row>
-    <row r="87" ht="13.5" spans="1:19">
+    <row r="87" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A87" s="21"/>
       <c r="B87" s="22"/>
       <c r="C87" s="21"/>
@@ -3459,7 +2880,7 @@
       <c r="R87" s="21"/>
       <c r="S87" s="22"/>
     </row>
-    <row r="88" ht="13.5" spans="1:19">
+    <row r="88" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A88" s="21"/>
       <c r="B88" s="22"/>
       <c r="C88" s="21"/>
@@ -3480,7 +2901,7 @@
       <c r="R88" s="21"/>
       <c r="S88" s="22"/>
     </row>
-    <row r="89" ht="13.5" spans="1:19">
+    <row r="89" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A89" s="21"/>
       <c r="B89" s="22"/>
       <c r="C89" s="21"/>
@@ -3501,7 +2922,7 @@
       <c r="R89" s="21"/>
       <c r="S89" s="22"/>
     </row>
-    <row r="90" ht="13.5" spans="1:19">
+    <row r="90" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A90" s="21"/>
       <c r="B90" s="22"/>
       <c r="C90" s="21"/>
@@ -3522,7 +2943,7 @@
       <c r="R90" s="21"/>
       <c r="S90" s="22"/>
     </row>
-    <row r="91" ht="13.5" spans="1:19">
+    <row r="91" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A91" s="21"/>
       <c r="B91" s="22"/>
       <c r="C91" s="21"/>
@@ -3543,7 +2964,7 @@
       <c r="R91" s="21"/>
       <c r="S91" s="22"/>
     </row>
-    <row r="92" ht="13.5" spans="1:19">
+    <row r="92" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A92" s="21"/>
       <c r="B92" s="22"/>
       <c r="C92" s="21"/>
@@ -3564,7 +2985,7 @@
       <c r="R92" s="21"/>
       <c r="S92" s="22"/>
     </row>
-    <row r="93" ht="13.5" spans="1:19">
+    <row r="93" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A93" s="21"/>
       <c r="B93" s="22"/>
       <c r="C93" s="21"/>
@@ -3585,7 +3006,7 @@
       <c r="R93" s="21"/>
       <c r="S93" s="22"/>
     </row>
-    <row r="94" ht="13.5" spans="1:19">
+    <row r="94" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A94" s="21"/>
       <c r="B94" s="22"/>
       <c r="C94" s="21"/>
@@ -3606,7 +3027,7 @@
       <c r="R94" s="21"/>
       <c r="S94" s="22"/>
     </row>
-    <row r="95" ht="13.5" spans="1:19">
+    <row r="95" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A95" s="21"/>
       <c r="B95" s="22"/>
       <c r="C95" s="21"/>
@@ -3627,7 +3048,7 @@
       <c r="R95" s="21"/>
       <c r="S95" s="22"/>
     </row>
-    <row r="96" ht="13.5" spans="1:19">
+    <row r="96" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A96" s="21"/>
       <c r="B96" s="22"/>
       <c r="C96" s="21"/>
@@ -3648,7 +3069,7 @@
       <c r="R96" s="21"/>
       <c r="S96" s="22"/>
     </row>
-    <row r="97" ht="13.5" spans="1:19">
+    <row r="97" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A97" s="21"/>
       <c r="B97" s="22"/>
       <c r="C97" s="21"/>
@@ -3669,7 +3090,7 @@
       <c r="R97" s="21"/>
       <c r="S97" s="22"/>
     </row>
-    <row r="98" ht="13.5" spans="1:19">
+    <row r="98" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A98" s="21"/>
       <c r="B98" s="22"/>
       <c r="C98" s="21"/>
@@ -3690,7 +3111,7 @@
       <c r="R98" s="21"/>
       <c r="S98" s="22"/>
     </row>
-    <row r="99" ht="13.5" spans="1:19">
+    <row r="99" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A99" s="21"/>
       <c r="B99" s="22"/>
       <c r="C99" s="21"/>
@@ -3711,7 +3132,7 @@
       <c r="R99" s="21"/>
       <c r="S99" s="22"/>
     </row>
-    <row r="100" ht="13.5" spans="1:19">
+    <row r="100" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A100" s="21"/>
       <c r="B100" s="22"/>
       <c r="C100" s="21"/>
@@ -3732,7 +3153,7 @@
       <c r="R100" s="21"/>
       <c r="S100" s="22"/>
     </row>
-    <row r="101" ht="13.5" spans="1:19">
+    <row r="101" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A101" s="21"/>
       <c r="B101" s="22"/>
       <c r="C101" s="21"/>
@@ -3753,7 +3174,7 @@
       <c r="R101" s="21"/>
       <c r="S101" s="22"/>
     </row>
-    <row r="102" ht="13.5" spans="1:19">
+    <row r="102" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A102" s="21"/>
       <c r="B102" s="22"/>
       <c r="C102" s="21"/>
@@ -3774,7 +3195,7 @@
       <c r="R102" s="21"/>
       <c r="S102" s="22"/>
     </row>
-    <row r="103" ht="13.5" spans="1:19">
+    <row r="103" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A103" s="21"/>
       <c r="B103" s="22"/>
       <c r="C103" s="21"/>
@@ -3795,7 +3216,7 @@
       <c r="R103" s="21"/>
       <c r="S103" s="22"/>
     </row>
-    <row r="104" ht="13.5" spans="1:19">
+    <row r="104" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A104" s="21"/>
       <c r="B104" s="22"/>
       <c r="C104" s="21"/>
@@ -3816,7 +3237,7 @@
       <c r="R104" s="21"/>
       <c r="S104" s="22"/>
     </row>
-    <row r="105" ht="13.5" spans="1:19">
+    <row r="105" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A105" s="21"/>
       <c r="B105" s="22"/>
       <c r="C105" s="21"/>
@@ -3837,7 +3258,7 @@
       <c r="R105" s="21"/>
       <c r="S105" s="22"/>
     </row>
-    <row r="106" ht="13.5" spans="1:19">
+    <row r="106" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A106" s="21"/>
       <c r="B106" s="22"/>
       <c r="C106" s="21"/>
@@ -3858,7 +3279,7 @@
       <c r="R106" s="21"/>
       <c r="S106" s="22"/>
     </row>
-    <row r="107" ht="13.5" spans="1:19">
+    <row r="107" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A107" s="21"/>
       <c r="B107" s="22"/>
       <c r="C107" s="21"/>
@@ -3879,7 +3300,7 @@
       <c r="R107" s="21"/>
       <c r="S107" s="22"/>
     </row>
-    <row r="108" ht="13.5" spans="1:19">
+    <row r="108" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A108" s="21"/>
       <c r="B108" s="22"/>
       <c r="C108" s="21"/>
@@ -3900,7 +3321,7 @@
       <c r="R108" s="21"/>
       <c r="S108" s="22"/>
     </row>
-    <row r="109" ht="13.5" spans="1:19">
+    <row r="109" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A109" s="21"/>
       <c r="B109" s="22"/>
       <c r="C109" s="21"/>
@@ -3921,7 +3342,7 @@
       <c r="R109" s="21"/>
       <c r="S109" s="22"/>
     </row>
-    <row r="110" ht="13.5" spans="1:19">
+    <row r="110" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A110" s="21"/>
       <c r="B110" s="22"/>
       <c r="C110" s="21"/>
@@ -3942,7 +3363,7 @@
       <c r="R110" s="21"/>
       <c r="S110" s="22"/>
     </row>
-    <row r="111" ht="13.5" spans="1:19">
+    <row r="111" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A111" s="21"/>
       <c r="B111" s="22"/>
       <c r="C111" s="21"/>
@@ -3963,7 +3384,7 @@
       <c r="R111" s="21"/>
       <c r="S111" s="22"/>
     </row>
-    <row r="112" ht="13.5" spans="1:19">
+    <row r="112" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A112" s="21"/>
       <c r="B112" s="22"/>
       <c r="C112" s="21"/>
@@ -3984,7 +3405,7 @@
       <c r="R112" s="21"/>
       <c r="S112" s="22"/>
     </row>
-    <row r="113" ht="13.5" spans="1:19">
+    <row r="113" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A113" s="21"/>
       <c r="B113" s="22"/>
       <c r="C113" s="21"/>
@@ -4005,7 +3426,7 @@
       <c r="R113" s="21"/>
       <c r="S113" s="22"/>
     </row>
-    <row r="114" ht="13.5" spans="1:19">
+    <row r="114" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A114" s="21"/>
       <c r="B114" s="22"/>
       <c r="C114" s="21"/>
@@ -4026,7 +3447,7 @@
       <c r="R114" s="21"/>
       <c r="S114" s="22"/>
     </row>
-    <row r="115" ht="13.5" spans="1:19">
+    <row r="115" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A115" s="21"/>
       <c r="B115" s="22"/>
       <c r="C115" s="21"/>
@@ -4047,7 +3468,7 @@
       <c r="R115" s="21"/>
       <c r="S115" s="22"/>
     </row>
-    <row r="116" ht="13.5" spans="1:19">
+    <row r="116" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A116" s="21"/>
       <c r="B116" s="22"/>
       <c r="C116" s="21"/>
@@ -4068,7 +3489,7 @@
       <c r="R116" s="21"/>
       <c r="S116" s="22"/>
     </row>
-    <row r="117" ht="13.5" spans="1:19">
+    <row r="117" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A117" s="21"/>
       <c r="B117" s="22"/>
       <c r="C117" s="21"/>
@@ -4089,7 +3510,7 @@
       <c r="R117" s="21"/>
       <c r="S117" s="22"/>
     </row>
-    <row r="118" ht="13.5" spans="1:19">
+    <row r="118" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A118" s="21"/>
       <c r="B118" s="22"/>
       <c r="C118" s="21"/>
@@ -4110,7 +3531,7 @@
       <c r="R118" s="21"/>
       <c r="S118" s="22"/>
     </row>
-    <row r="119" ht="13.5" spans="1:19">
+    <row r="119" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A119" s="21"/>
       <c r="B119" s="22"/>
       <c r="C119" s="21"/>
@@ -4131,7 +3552,7 @@
       <c r="R119" s="21"/>
       <c r="S119" s="22"/>
     </row>
-    <row r="120" spans="1:19">
+    <row r="120" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A120" s="21"/>
       <c r="B120" s="22"/>
       <c r="C120" s="21"/>
@@ -4152,7 +3573,7 @@
       <c r="R120" s="21"/>
       <c r="S120" s="22"/>
     </row>
-    <row r="121" spans="1:19">
+    <row r="121" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A121" s="21"/>
       <c r="B121" s="22"/>
       <c r="C121" s="21"/>
@@ -4173,7 +3594,7 @@
       <c r="R121" s="21"/>
       <c r="S121" s="22"/>
     </row>
-    <row r="122" spans="1:19">
+    <row r="122" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A122" s="21"/>
       <c r="B122" s="22"/>
       <c r="C122" s="21"/>
@@ -4194,7 +3615,7 @@
       <c r="R122" s="21"/>
       <c r="S122" s="22"/>
     </row>
-    <row r="123" spans="1:19">
+    <row r="123" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A123" s="21"/>
       <c r="B123" s="22"/>
       <c r="C123" s="21"/>
@@ -4215,7 +3636,7 @@
       <c r="R123" s="21"/>
       <c r="S123" s="22"/>
     </row>
-    <row r="124" spans="1:19">
+    <row r="124" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A124" s="21"/>
       <c r="B124" s="22"/>
       <c r="C124" s="21"/>
@@ -4236,7 +3657,7 @@
       <c r="R124" s="21"/>
       <c r="S124" s="22"/>
     </row>
-    <row r="125" spans="1:19">
+    <row r="125" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A125" s="21"/>
       <c r="B125" s="22"/>
       <c r="C125" s="21"/>
@@ -4257,7 +3678,7 @@
       <c r="R125" s="21"/>
       <c r="S125" s="22"/>
     </row>
-    <row r="126" spans="1:19">
+    <row r="126" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A126" s="21"/>
       <c r="B126" s="22"/>
       <c r="C126" s="21"/>
@@ -4278,7 +3699,7 @@
       <c r="R126" s="21"/>
       <c r="S126" s="22"/>
     </row>
-    <row r="127" spans="1:19">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A127" s="21"/>
       <c r="B127" s="22"/>
       <c r="C127" s="21"/>
@@ -4299,7 +3720,7 @@
       <c r="R127" s="21"/>
       <c r="S127" s="22"/>
     </row>
-    <row r="128" spans="1:19">
+    <row r="128" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A128" s="21"/>
       <c r="B128" s="22"/>
       <c r="C128" s="21"/>
@@ -4320,7 +3741,7 @@
       <c r="R128" s="21"/>
       <c r="S128" s="22"/>
     </row>
-    <row r="129" spans="1:19">
+    <row r="129" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A129" s="21"/>
       <c r="B129" s="22"/>
       <c r="C129" s="21"/>
@@ -4341,7 +3762,7 @@
       <c r="R129" s="21"/>
       <c r="S129" s="22"/>
     </row>
-    <row r="130" spans="1:19">
+    <row r="130" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A130" s="21"/>
       <c r="B130" s="22"/>
       <c r="C130" s="21"/>
@@ -4362,7 +3783,7 @@
       <c r="R130" s="21"/>
       <c r="S130" s="22"/>
     </row>
-    <row r="131" spans="1:19">
+    <row r="131" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A131" s="21"/>
       <c r="B131" s="22"/>
       <c r="C131" s="21"/>
@@ -4383,7 +3804,7 @@
       <c r="R131" s="21"/>
       <c r="S131" s="22"/>
     </row>
-    <row r="132" spans="1:19">
+    <row r="132" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A132" s="21"/>
       <c r="B132" s="22"/>
       <c r="C132" s="21"/>
@@ -4404,7 +3825,7 @@
       <c r="R132" s="21"/>
       <c r="S132" s="22"/>
     </row>
-    <row r="133" spans="1:19">
+    <row r="133" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A133" s="21"/>
       <c r="B133" s="22"/>
       <c r="C133" s="21"/>
@@ -4425,7 +3846,7 @@
       <c r="R133" s="21"/>
       <c r="S133" s="22"/>
     </row>
-    <row r="134" spans="1:19">
+    <row r="134" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A134" s="21"/>
       <c r="B134" s="22"/>
       <c r="C134" s="21"/>
@@ -4446,7 +3867,7 @@
       <c r="R134" s="21"/>
       <c r="S134" s="22"/>
     </row>
-    <row r="135" spans="1:19">
+    <row r="135" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A135" s="21"/>
       <c r="B135" s="22"/>
       <c r="C135" s="21"/>
@@ -4467,7 +3888,7 @@
       <c r="R135" s="21"/>
       <c r="S135" s="22"/>
     </row>
-    <row r="136" spans="1:19">
+    <row r="136" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A136" s="21"/>
       <c r="B136" s="22"/>
       <c r="C136" s="21"/>
@@ -4488,7 +3909,7 @@
       <c r="R136" s="21"/>
       <c r="S136" s="22"/>
     </row>
-    <row r="137" spans="1:19">
+    <row r="137" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A137" s="21"/>
       <c r="B137" s="22"/>
       <c r="C137" s="21"/>
@@ -4509,7 +3930,7 @@
       <c r="R137" s="21"/>
       <c r="S137" s="22"/>
     </row>
-    <row r="138" spans="1:19">
+    <row r="138" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A138" s="21"/>
       <c r="B138" s="22"/>
       <c r="C138" s="21"/>
@@ -4530,7 +3951,7 @@
       <c r="R138" s="21"/>
       <c r="S138" s="22"/>
     </row>
-    <row r="139" spans="1:19">
+    <row r="139" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A139" s="21"/>
       <c r="B139" s="22"/>
       <c r="C139" s="21"/>
@@ -4551,7 +3972,7 @@
       <c r="R139" s="21"/>
       <c r="S139" s="22"/>
     </row>
-    <row r="140" spans="1:19">
+    <row r="140" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A140" s="21"/>
       <c r="B140" s="22"/>
       <c r="C140" s="21"/>
@@ -4572,7 +3993,7 @@
       <c r="R140" s="21"/>
       <c r="S140" s="22"/>
     </row>
-    <row r="141" spans="1:19">
+    <row r="141" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A141" s="21"/>
       <c r="B141" s="22"/>
       <c r="C141" s="21"/>
@@ -4593,7 +4014,7 @@
       <c r="R141" s="21"/>
       <c r="S141" s="22"/>
     </row>
-    <row r="142" spans="1:19">
+    <row r="142" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A142" s="21"/>
       <c r="B142" s="22"/>
       <c r="C142" s="21"/>
@@ -4614,7 +4035,7 @@
       <c r="R142" s="21"/>
       <c r="S142" s="22"/>
     </row>
-    <row r="143" spans="1:19">
+    <row r="143" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A143" s="21"/>
       <c r="B143" s="22"/>
       <c r="C143" s="21"/>
@@ -4635,7 +4056,7 @@
       <c r="R143" s="21"/>
       <c r="S143" s="22"/>
     </row>
-    <row r="144" spans="1:19">
+    <row r="144" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A144" s="21"/>
       <c r="B144" s="22"/>
       <c r="C144" s="21"/>
@@ -4656,7 +4077,7 @@
       <c r="R144" s="21"/>
       <c r="S144" s="22"/>
     </row>
-    <row r="145" spans="1:19">
+    <row r="145" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A145" s="21"/>
       <c r="B145" s="22"/>
       <c r="C145" s="21"/>
@@ -4677,7 +4098,7 @@
       <c r="R145" s="21"/>
       <c r="S145" s="22"/>
     </row>
-    <row r="146" spans="1:19">
+    <row r="146" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A146" s="21"/>
       <c r="B146" s="22"/>
       <c r="C146" s="21"/>
@@ -4698,7 +4119,7 @@
       <c r="R146" s="21"/>
       <c r="S146" s="22"/>
     </row>
-    <row r="147" spans="1:19">
+    <row r="147" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A147" s="21"/>
       <c r="B147" s="22"/>
       <c r="C147" s="21"/>
@@ -4719,7 +4140,7 @@
       <c r="R147" s="21"/>
       <c r="S147" s="22"/>
     </row>
-    <row r="148" spans="1:19">
+    <row r="148" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A148" s="21"/>
       <c r="B148" s="22"/>
       <c r="C148" s="21"/>
@@ -4740,7 +4161,7 @@
       <c r="R148" s="21"/>
       <c r="S148" s="22"/>
     </row>
-    <row r="149" spans="1:19">
+    <row r="149" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A149" s="21"/>
       <c r="B149" s="22"/>
       <c r="C149" s="21"/>
@@ -4761,7 +4182,7 @@
       <c r="R149" s="21"/>
       <c r="S149" s="22"/>
     </row>
-    <row r="150" spans="1:19">
+    <row r="150" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A150" s="21"/>
       <c r="B150" s="22"/>
       <c r="C150" s="21"/>
@@ -4782,7 +4203,7 @@
       <c r="R150" s="21"/>
       <c r="S150" s="22"/>
     </row>
-    <row r="151" spans="1:19">
+    <row r="151" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A151" s="21"/>
       <c r="B151" s="22"/>
       <c r="C151" s="21"/>
@@ -4803,7 +4224,7 @@
       <c r="R151" s="21"/>
       <c r="S151" s="22"/>
     </row>
-    <row r="152" spans="1:19">
+    <row r="152" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A152" s="21"/>
       <c r="B152" s="22"/>
       <c r="C152" s="21"/>
@@ -4824,7 +4245,7 @@
       <c r="R152" s="21"/>
       <c r="S152" s="22"/>
     </row>
-    <row r="153" spans="1:19">
+    <row r="153" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A153" s="21"/>
       <c r="B153" s="22"/>
       <c r="C153" s="21"/>
@@ -4845,7 +4266,7 @@
       <c r="R153" s="21"/>
       <c r="S153" s="22"/>
     </row>
-    <row r="154" spans="1:19">
+    <row r="154" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A154" s="21"/>
       <c r="B154" s="22"/>
       <c r="C154" s="21"/>
@@ -4866,7 +4287,7 @@
       <c r="R154" s="21"/>
       <c r="S154" s="22"/>
     </row>
-    <row r="155" spans="1:19">
+    <row r="155" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A155" s="21"/>
       <c r="B155" s="22"/>
       <c r="C155" s="21"/>
@@ -4887,7 +4308,7 @@
       <c r="R155" s="21"/>
       <c r="S155" s="22"/>
     </row>
-    <row r="156" spans="1:19">
+    <row r="156" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A156" s="21"/>
       <c r="B156" s="22"/>
       <c r="C156" s="21"/>
@@ -4908,7 +4329,7 @@
       <c r="R156" s="21"/>
       <c r="S156" s="22"/>
     </row>
-    <row r="157" spans="1:19">
+    <row r="157" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A157" s="21"/>
       <c r="B157" s="22"/>
       <c r="C157" s="21"/>
@@ -4929,7 +4350,7 @@
       <c r="R157" s="21"/>
       <c r="S157" s="22"/>
     </row>
-    <row r="158" spans="1:19">
+    <row r="158" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A158" s="21"/>
       <c r="B158" s="22"/>
       <c r="C158" s="21"/>
@@ -4950,7 +4371,7 @@
       <c r="R158" s="21"/>
       <c r="S158" s="22"/>
     </row>
-    <row r="159" spans="1:19">
+    <row r="159" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A159" s="21"/>
       <c r="B159" s="22"/>
       <c r="C159" s="21"/>
@@ -4971,7 +4392,7 @@
       <c r="R159" s="21"/>
       <c r="S159" s="22"/>
     </row>
-    <row r="160" spans="1:19">
+    <row r="160" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A160" s="21"/>
       <c r="B160" s="22"/>
       <c r="C160" s="21"/>
@@ -4992,7 +4413,7 @@
       <c r="R160" s="21"/>
       <c r="S160" s="22"/>
     </row>
-    <row r="161" spans="1:19">
+    <row r="161" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A161" s="21"/>
       <c r="B161" s="22"/>
       <c r="C161" s="21"/>
@@ -5013,7 +4434,7 @@
       <c r="R161" s="21"/>
       <c r="S161" s="22"/>
     </row>
-    <row r="162" spans="1:19">
+    <row r="162" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A162" s="21"/>
       <c r="B162" s="22"/>
       <c r="C162" s="21"/>
@@ -5034,7 +4455,7 @@
       <c r="R162" s="21"/>
       <c r="S162" s="22"/>
     </row>
-    <row r="163" spans="1:19">
+    <row r="163" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A163" s="21"/>
       <c r="B163" s="22"/>
       <c r="C163" s="21"/>
@@ -5055,7 +4476,7 @@
       <c r="R163" s="21"/>
       <c r="S163" s="22"/>
     </row>
-    <row r="164" spans="1:19">
+    <row r="164" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A164" s="21"/>
       <c r="B164" s="22"/>
       <c r="C164" s="21"/>
@@ -5076,7 +4497,7 @@
       <c r="R164" s="21"/>
       <c r="S164" s="22"/>
     </row>
-    <row r="165" spans="1:19">
+    <row r="165" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A165" s="21"/>
       <c r="B165" s="22"/>
       <c r="C165" s="21"/>
@@ -5097,7 +4518,7 @@
       <c r="R165" s="21"/>
       <c r="S165" s="22"/>
     </row>
-    <row r="166" spans="1:19">
+    <row r="166" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A166" s="21"/>
       <c r="B166" s="22"/>
       <c r="C166" s="21"/>
@@ -5118,7 +4539,7 @@
       <c r="R166" s="21"/>
       <c r="S166" s="22"/>
     </row>
-    <row r="167" spans="1:19">
+    <row r="167" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A167" s="21"/>
       <c r="B167" s="22"/>
       <c r="C167" s="21"/>
@@ -5139,7 +4560,7 @@
       <c r="R167" s="21"/>
       <c r="S167" s="22"/>
     </row>
-    <row r="168" spans="1:19">
+    <row r="168" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A168" s="21"/>
       <c r="B168" s="22"/>
       <c r="C168" s="21"/>
@@ -5159,7 +4580,7 @@
       <c r="Q168" s="21"/>
       <c r="S168" s="22"/>
     </row>
-    <row r="169" spans="1:19">
+    <row r="169" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A169" s="21"/>
       <c r="B169" s="22"/>
       <c r="C169" s="21"/>
@@ -5179,7 +4600,7 @@
       <c r="Q169" s="21"/>
       <c r="S169" s="22"/>
     </row>
-    <row r="170" spans="1:19">
+    <row r="170" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A170" s="21"/>
       <c r="B170" s="22"/>
       <c r="C170" s="21"/>
@@ -5199,7 +4620,7 @@
       <c r="Q170" s="21"/>
       <c r="S170" s="22"/>
     </row>
-    <row r="171" spans="1:19">
+    <row r="171" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A171" s="21"/>
       <c r="B171" s="22"/>
       <c r="C171" s="21"/>
@@ -5219,7 +4640,7 @@
       <c r="Q171" s="21"/>
       <c r="S171" s="22"/>
     </row>
-    <row r="172" spans="1:19">
+    <row r="172" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A172" s="21"/>
       <c r="B172" s="22"/>
       <c r="C172" s="21"/>
@@ -5239,7 +4660,7 @@
       <c r="Q172" s="21"/>
       <c r="S172" s="22"/>
     </row>
-    <row r="173" spans="1:19">
+    <row r="173" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A173" s="21"/>
       <c r="B173" s="22"/>
       <c r="C173" s="21"/>
@@ -5259,7 +4680,7 @@
       <c r="Q173" s="21"/>
       <c r="S173" s="22"/>
     </row>
-    <row r="174" spans="1:19">
+    <row r="174" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A174" s="21"/>
       <c r="B174" s="22"/>
       <c r="C174" s="21"/>
@@ -5279,7 +4700,7 @@
       <c r="Q174" s="21"/>
       <c r="S174" s="22"/>
     </row>
-    <row r="175" spans="1:19">
+    <row r="175" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A175" s="21"/>
       <c r="B175" s="22"/>
       <c r="C175" s="21"/>
@@ -5299,7 +4720,7 @@
       <c r="Q175" s="21"/>
       <c r="S175" s="22"/>
     </row>
-    <row r="176" spans="1:19">
+    <row r="176" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A176" s="21"/>
       <c r="B176" s="22"/>
       <c r="C176" s="21"/>
@@ -5319,7 +4740,7 @@
       <c r="Q176" s="21"/>
       <c r="S176" s="22"/>
     </row>
-    <row r="177" spans="1:19">
+    <row r="177" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A177" s="21"/>
       <c r="B177" s="22"/>
       <c r="C177" s="21"/>
@@ -5339,7 +4760,7 @@
       <c r="Q177" s="21"/>
       <c r="S177" s="22"/>
     </row>
-    <row r="178" spans="1:19">
+    <row r="178" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A178" s="21"/>
       <c r="B178" s="22"/>
       <c r="C178" s="21"/>
@@ -5359,7 +4780,7 @@
       <c r="Q178" s="21"/>
       <c r="S178" s="22"/>
     </row>
-    <row r="179" spans="1:19">
+    <row r="179" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A179" s="21"/>
       <c r="B179" s="22"/>
       <c r="C179" s="21"/>
@@ -5379,7 +4800,7 @@
       <c r="Q179" s="21"/>
       <c r="S179" s="22"/>
     </row>
-    <row r="180" spans="1:19">
+    <row r="180" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A180" s="21"/>
       <c r="B180" s="22"/>
       <c r="C180" s="21"/>
@@ -5397,7 +4818,7 @@
       <c r="O180" s="22"/>
       <c r="S180" s="22"/>
     </row>
-    <row r="181" spans="1:19">
+    <row r="181" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A181" s="21"/>
       <c r="B181" s="22"/>
       <c r="C181" s="21"/>
@@ -5415,7 +4836,7 @@
       <c r="O181" s="22"/>
       <c r="S181" s="22"/>
     </row>
-    <row r="182" spans="1:19">
+    <row r="182" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A182" s="21"/>
       <c r="B182" s="22"/>
       <c r="C182" s="21"/>
@@ -5433,7 +4854,7 @@
       <c r="O182" s="22"/>
       <c r="S182" s="22"/>
     </row>
-    <row r="183" spans="1:19">
+    <row r="183" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A183" s="21"/>
       <c r="B183" s="22"/>
       <c r="C183" s="21"/>
@@ -5451,7 +4872,7 @@
       <c r="O183" s="22"/>
       <c r="S183" s="22"/>
     </row>
-    <row r="184" spans="1:19">
+    <row r="184" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A184" s="21"/>
       <c r="B184" s="22"/>
       <c r="C184" s="21"/>
@@ -5469,7 +4890,7 @@
       <c r="O184" s="22"/>
       <c r="S184" s="22"/>
     </row>
-    <row r="185" spans="1:19">
+    <row r="185" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A185" s="21"/>
       <c r="B185" s="22"/>
       <c r="C185" s="21"/>
@@ -5487,7 +4908,7 @@
       <c r="O185" s="22"/>
       <c r="S185" s="22"/>
     </row>
-    <row r="186" spans="1:19">
+    <row r="186" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A186" s="21"/>
       <c r="B186" s="22"/>
       <c r="C186" s="21"/>
@@ -5505,7 +4926,7 @@
       <c r="O186" s="22"/>
       <c r="S186" s="22"/>
     </row>
-    <row r="187" spans="1:19">
+    <row r="187" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A187" s="21"/>
       <c r="B187" s="22"/>
       <c r="C187" s="21"/>
@@ -5523,7 +4944,7 @@
       <c r="O187" s="22"/>
       <c r="S187" s="22"/>
     </row>
-    <row r="188" spans="1:19">
+    <row r="188" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A188" s="21"/>
       <c r="B188" s="22"/>
       <c r="C188" s="21"/>
@@ -5541,7 +4962,7 @@
       <c r="O188" s="22"/>
       <c r="S188" s="22"/>
     </row>
-    <row r="189" spans="1:19">
+    <row r="189" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A189" s="21"/>
       <c r="B189" s="22"/>
       <c r="C189" s="21"/>
@@ -5559,7 +4980,7 @@
       <c r="O189" s="22"/>
       <c r="S189" s="22"/>
     </row>
-    <row r="190" spans="1:19">
+    <row r="190" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A190" s="21"/>
       <c r="B190" s="22"/>
       <c r="C190" s="21"/>
@@ -5577,7 +4998,7 @@
       <c r="O190" s="22"/>
       <c r="S190" s="22"/>
     </row>
-    <row r="191" spans="1:19">
+    <row r="191" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A191" s="21"/>
       <c r="B191" s="22"/>
       <c r="C191" s="21"/>
@@ -5595,7 +5016,7 @@
       <c r="O191" s="22"/>
       <c r="S191" s="22"/>
     </row>
-    <row r="192" spans="1:19">
+    <row r="192" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A192" s="21"/>
       <c r="B192" s="22"/>
       <c r="C192" s="21"/>
@@ -5613,7 +5034,7 @@
       <c r="O192" s="22"/>
       <c r="S192" s="22"/>
     </row>
-    <row r="193" spans="1:19">
+    <row r="193" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A193" s="21"/>
       <c r="B193" s="22"/>
       <c r="C193" s="21"/>
@@ -5631,7 +5052,7 @@
       <c r="O193" s="22"/>
       <c r="S193" s="22"/>
     </row>
-    <row r="194" spans="1:19">
+    <row r="194" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A194" s="21"/>
       <c r="B194" s="22"/>
       <c r="C194" s="21"/>
@@ -5649,7 +5070,7 @@
       <c r="O194" s="22"/>
       <c r="S194" s="22"/>
     </row>
-    <row r="195" spans="1:19">
+    <row r="195" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A195" s="21"/>
       <c r="B195" s="22"/>
       <c r="C195" s="21"/>
@@ -5667,7 +5088,7 @@
       <c r="O195" s="22"/>
       <c r="S195" s="22"/>
     </row>
-    <row r="196" spans="1:19">
+    <row r="196" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A196" s="21"/>
       <c r="B196" s="22"/>
       <c r="C196" s="21"/>
@@ -5685,7 +5106,7 @@
       <c r="O196" s="22"/>
       <c r="S196" s="22"/>
     </row>
-    <row r="197" spans="1:19">
+    <row r="197" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A197" s="21"/>
       <c r="B197" s="22"/>
       <c r="C197" s="21"/>
@@ -5703,7 +5124,7 @@
       <c r="O197" s="22"/>
       <c r="S197" s="22"/>
     </row>
-    <row r="198" spans="1:19">
+    <row r="198" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A198" s="21"/>
       <c r="B198" s="22"/>
       <c r="C198" s="21"/>
@@ -5721,7 +5142,7 @@
       <c r="O198" s="22"/>
       <c r="S198" s="22"/>
     </row>
-    <row r="199" spans="1:19">
+    <row r="199" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A199" s="21"/>
       <c r="B199" s="22"/>
       <c r="C199" s="21"/>
@@ -5739,7 +5160,7 @@
       <c r="O199" s="22"/>
       <c r="S199" s="22"/>
     </row>
-    <row r="200" spans="1:19">
+    <row r="200" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A200" s="21"/>
       <c r="B200" s="22"/>
       <c r="C200" s="21"/>
@@ -5757,7 +5178,7 @@
       <c r="O200" s="22"/>
       <c r="S200" s="22"/>
     </row>
-    <row r="201" spans="1:19">
+    <row r="201" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A201" s="21"/>
       <c r="B201" s="22"/>
       <c r="C201" s="21"/>
@@ -5775,7 +5196,7 @@
       <c r="O201" s="22"/>
       <c r="S201" s="22"/>
     </row>
-    <row r="202" spans="1:19">
+    <row r="202" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A202" s="21"/>
       <c r="B202" s="22"/>
       <c r="C202" s="21"/>
@@ -5793,7 +5214,7 @@
       <c r="O202" s="22"/>
       <c r="S202" s="22"/>
     </row>
-    <row r="203" spans="1:19">
+    <row r="203" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A203" s="21"/>
       <c r="B203" s="22"/>
       <c r="C203" s="21"/>
@@ -5811,7 +5232,7 @@
       <c r="O203" s="22"/>
       <c r="S203" s="22"/>
     </row>
-    <row r="204" spans="1:19">
+    <row r="204" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A204" s="21"/>
       <c r="B204" s="22"/>
       <c r="C204" s="21"/>
@@ -5829,7 +5250,7 @@
       <c r="O204" s="22"/>
       <c r="S204" s="22"/>
     </row>
-    <row r="205" spans="1:19">
+    <row r="205" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A205" s="21"/>
       <c r="B205" s="22"/>
       <c r="C205" s="21"/>
@@ -5847,7 +5268,7 @@
       <c r="O205" s="22"/>
       <c r="S205" s="22"/>
     </row>
-    <row r="206" spans="1:19">
+    <row r="206" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A206" s="21"/>
       <c r="B206" s="22"/>
       <c r="C206" s="21"/>
@@ -5865,7 +5286,7 @@
       <c r="O206" s="22"/>
       <c r="S206" s="22"/>
     </row>
-    <row r="207" spans="1:19">
+    <row r="207" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A207" s="21"/>
       <c r="B207" s="22"/>
       <c r="C207" s="21"/>
@@ -5883,7 +5304,7 @@
       <c r="O207" s="22"/>
       <c r="S207" s="22"/>
     </row>
-    <row r="208" spans="1:19">
+    <row r="208" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A208" s="21"/>
       <c r="B208" s="22"/>
       <c r="C208" s="21"/>
@@ -5901,7 +5322,7 @@
       <c r="O208" s="22"/>
       <c r="S208" s="22"/>
     </row>
-    <row r="209" spans="1:19">
+    <row r="209" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A209" s="21"/>
       <c r="B209" s="22"/>
       <c r="C209" s="21"/>
@@ -5919,7 +5340,7 @@
       <c r="O209" s="22"/>
       <c r="S209" s="22"/>
     </row>
-    <row r="210" spans="1:19">
+    <row r="210" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A210" s="21"/>
       <c r="B210" s="22"/>
       <c r="C210" s="21"/>
@@ -5937,7 +5358,7 @@
       <c r="O210" s="22"/>
       <c r="S210" s="22"/>
     </row>
-    <row r="211" spans="1:19">
+    <row r="211" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A211" s="21"/>
       <c r="B211" s="22"/>
       <c r="C211" s="21"/>
@@ -5955,7 +5376,7 @@
       <c r="O211" s="22"/>
       <c r="S211" s="22"/>
     </row>
-    <row r="212" spans="1:19">
+    <row r="212" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A212" s="21"/>
       <c r="B212" s="22"/>
       <c r="C212" s="21"/>
@@ -5973,7 +5394,7 @@
       <c r="O212" s="22"/>
       <c r="S212" s="22"/>
     </row>
-    <row r="213" spans="1:19">
+    <row r="213" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A213" s="21"/>
       <c r="B213" s="22"/>
       <c r="C213" s="21"/>
@@ -5991,7 +5412,7 @@
       <c r="O213" s="22"/>
       <c r="S213" s="22"/>
     </row>
-    <row r="214" spans="1:19">
+    <row r="214" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A214" s="21"/>
       <c r="B214" s="22"/>
       <c r="C214" s="21"/>
@@ -6010,22 +5431,21 @@
       <c r="S214" s="22"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="43.25" customWidth="1"/>
@@ -6036,7 +5456,7 @@
     <col min="8" max="8" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>35</v>
       </c>
@@ -6062,7 +5482,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:8">
+    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -6072,7 +5492,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -6082,7 +5502,7 @@
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -6092,7 +5512,7 @@
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -6102,7 +5522,7 @@
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -6112,7 +5532,7 @@
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -6122,7 +5542,7 @@
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -6132,7 +5552,7 @@
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -6142,7 +5562,7 @@
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -6152,7 +5572,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -6162,7 +5582,7 @@
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -6172,7 +5592,7 @@
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -6182,7 +5602,7 @@
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -6192,7 +5612,7 @@
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -6202,7 +5622,7 @@
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -6212,7 +5632,7 @@
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -6222,7 +5642,7 @@
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -6232,7 +5652,7 @@
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -6243,12 +5663,12 @@
       <c r="H19" s="5"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D$1:D$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
       <formula1>"致命,严重,一般,轻微"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/VersionRecords/Version3.0.2/版本Bug和特性计划及评审表v3.0.2_架构组.xlsx
+++ b/VersionRecords/Version3.0.2/版本Bug和特性计划及评审表v3.0.2_架构组.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\worktools\GitRepository\Mogo_Doc\VersionRecords\Version3.0.2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28050" windowHeight="12495"/>
   </bookViews>
@@ -15,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="49">
   <si>
     <t>No</t>
   </si>
@@ -74,9 +79,6 @@
     <t>备注</t>
   </si>
   <si>
-    <t>建周、大汉三通抓取回执状态的接口开发</t>
-  </si>
-  <si>
     <t>New Features</t>
   </si>
   <si>
@@ -92,28 +94,13 @@
     <t>架构组</t>
   </si>
   <si>
-    <t>地图找房时需要显示小区最低价格</t>
-  </si>
-  <si>
     <t>输入校验工具类</t>
   </si>
   <si>
     <t>蒙先铭</t>
   </si>
   <si>
-    <t>地图缩放增加按照商圈进行汇总显示</t>
-  </si>
-  <si>
-    <t>bugfix</t>
-  </si>
-  <si>
-    <t>微信支付宝对账出错修改</t>
-  </si>
-  <si>
     <t>冯银鹏</t>
-  </si>
-  <si>
-    <t>BS退款管理页面增加入住人信息</t>
   </si>
   <si>
     <t>为comm_businessrecord添加channel字段，并添加service相关操作</t>
@@ -165,6 +152,34 @@
     <t>余星赞</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信支付宝对账出错修改</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>payapi</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>上线验证</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -182,34 +197,40 @@
       <sz val="11"/>
       <color indexed="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -223,11 +244,13 @@
       <b/>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -251,7 +274,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -340,12 +363,29 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
       <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -369,7 +409,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -469,10 +509,16 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="5" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -491,6 +537,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -827,8 +876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="S4" sqref="S4"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -913,195 +962,207 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="9" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="14">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>20</v>
-      </c>
       <c r="D2" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="16" t="s">
         <v>21</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>22</v>
       </c>
       <c r="F2" s="23">
         <v>42440</v>
       </c>
       <c r="G2" s="23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H2" s="23">
         <v>42440</v>
       </c>
       <c r="I2" s="16"/>
       <c r="J2" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="16" t="s">
-        <v>24</v>
-      </c>
       <c r="L2" s="26" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="M2" s="26" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="N2" s="23">
         <v>42444</v>
       </c>
       <c r="O2" s="26" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="P2" s="29"/>
       <c r="Q2" s="29"/>
-      <c r="R2" s="30"/>
+      <c r="R2" s="30" t="s">
+        <v>42</v>
+      </c>
       <c r="S2" s="31"/>
       <c r="T2" s="32"/>
     </row>
-    <row r="3" spans="1:20" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="14">
         <v>2</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>25</v>
+      <c r="B3" s="16" t="s">
+        <v>24</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F3" s="23">
         <v>42440</v>
       </c>
       <c r="G3" s="23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H3" s="23">
         <v>42440</v>
       </c>
       <c r="I3" s="16"/>
       <c r="J3" s="26" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K3" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L3" s="16" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="M3" s="26" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="N3" s="23">
         <v>42444</v>
       </c>
       <c r="O3" s="26" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="P3" s="29"/>
       <c r="Q3" s="29"/>
-      <c r="R3" s="33"/>
+      <c r="R3" s="30" t="s">
+        <v>42</v>
+      </c>
       <c r="S3" s="31"/>
       <c r="T3" s="32"/>
     </row>
-    <row r="4" spans="1:20" s="9" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" s="9" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="14">
         <v>3</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>28</v>
+      <c r="B4" s="16" t="s">
+        <v>43</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F4" s="23">
         <v>42440</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H4" s="23">
         <v>42440</v>
       </c>
       <c r="I4" s="16"/>
       <c r="J4" s="26" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="K4" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="L4" s="16"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="26"/>
+        <v>23</v>
+      </c>
+      <c r="L4" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="M4" s="35"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="26" t="s">
+        <v>39</v>
+      </c>
       <c r="P4" s="29"/>
       <c r="Q4" s="29"/>
-      <c r="R4" s="33"/>
+      <c r="R4" s="30" t="s">
+        <v>42</v>
+      </c>
       <c r="S4" s="31"/>
       <c r="T4" s="32"/>
     </row>
-    <row r="5" spans="1:20" s="9" customFormat="1" ht="99" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" s="9" customFormat="1" ht="33" x14ac:dyDescent="0.15">
       <c r="A5" s="14">
         <v>4</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>32</v>
+      <c r="B5" s="16" t="s">
+        <v>27</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F5" s="23">
         <v>42440</v>
       </c>
       <c r="G5" s="23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H5" s="23">
         <v>42440</v>
       </c>
       <c r="I5" s="16"/>
       <c r="J5" s="26" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="K5" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L5" s="16" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="M5" s="26" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="N5" s="23">
         <v>42444</v>
       </c>
       <c r="O5" s="26" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="P5" s="29"/>
       <c r="Q5" s="29"/>
-      <c r="R5" s="33"/>
+      <c r="R5" s="30" t="s">
+        <v>42</v>
+      </c>
       <c r="S5" s="31"/>
       <c r="T5" s="32"/>
     </row>
@@ -1123,7 +1184,7 @@
       <c r="O6" s="26"/>
       <c r="P6" s="29"/>
       <c r="Q6" s="29"/>
-      <c r="R6" s="34"/>
+      <c r="R6" s="33"/>
       <c r="S6" s="31"/>
       <c r="T6" s="32"/>
     </row>
@@ -1145,7 +1206,7 @@
       <c r="O7" s="26"/>
       <c r="P7" s="29"/>
       <c r="Q7" s="29"/>
-      <c r="R7" s="34"/>
+      <c r="R7" s="33"/>
       <c r="S7" s="31"/>
       <c r="T7" s="32"/>
     </row>
@@ -1167,7 +1228,7 @@
       <c r="O8" s="26"/>
       <c r="P8" s="29"/>
       <c r="Q8" s="29"/>
-      <c r="R8" s="34"/>
+      <c r="R8" s="33"/>
       <c r="S8" s="31"/>
       <c r="T8" s="32"/>
     </row>
@@ -1189,7 +1250,7 @@
       <c r="O9" s="26"/>
       <c r="P9" s="29"/>
       <c r="Q9" s="29"/>
-      <c r="R9" s="34"/>
+      <c r="R9" s="33"/>
       <c r="S9" s="31"/>
       <c r="T9" s="32"/>
     </row>
@@ -1211,7 +1272,7 @@
       <c r="O10" s="26"/>
       <c r="P10" s="29"/>
       <c r="Q10" s="29"/>
-      <c r="R10" s="34"/>
+      <c r="R10" s="33"/>
       <c r="S10" s="31"/>
       <c r="T10" s="32"/>
     </row>
@@ -1233,7 +1294,7 @@
       <c r="O11" s="26"/>
       <c r="P11" s="29"/>
       <c r="Q11" s="29"/>
-      <c r="R11" s="34"/>
+      <c r="R11" s="33"/>
       <c r="S11" s="31"/>
       <c r="T11" s="32"/>
     </row>
@@ -1255,7 +1316,7 @@
       <c r="O12" s="26"/>
       <c r="P12" s="29"/>
       <c r="Q12" s="29"/>
-      <c r="R12" s="34"/>
+      <c r="R12" s="33"/>
       <c r="S12" s="31"/>
       <c r="T12" s="32"/>
     </row>
@@ -1277,7 +1338,7 @@
       <c r="O13" s="26"/>
       <c r="P13" s="21"/>
       <c r="Q13" s="21"/>
-      <c r="R13" s="34"/>
+      <c r="R13" s="33"/>
       <c r="S13" s="31"/>
       <c r="T13" s="32"/>
     </row>
@@ -1299,7 +1360,7 @@
       <c r="O14" s="26"/>
       <c r="P14" s="21"/>
       <c r="Q14" s="21"/>
-      <c r="R14" s="34"/>
+      <c r="R14" s="33"/>
       <c r="S14" s="31"/>
       <c r="T14" s="32"/>
     </row>
@@ -1321,7 +1382,7 @@
       <c r="O15" s="26"/>
       <c r="P15" s="21"/>
       <c r="Q15" s="21"/>
-      <c r="R15" s="34"/>
+      <c r="R15" s="33"/>
       <c r="S15" s="31"/>
       <c r="T15" s="32"/>
     </row>
@@ -1343,7 +1404,7 @@
       <c r="O16" s="26"/>
       <c r="P16" s="21"/>
       <c r="Q16" s="21"/>
-      <c r="R16" s="34"/>
+      <c r="R16" s="33"/>
       <c r="S16" s="31"/>
       <c r="T16" s="32"/>
     </row>
@@ -1365,7 +1426,7 @@
       <c r="O17" s="26"/>
       <c r="P17" s="21"/>
       <c r="Q17" s="21"/>
-      <c r="R17" s="34"/>
+      <c r="R17" s="33"/>
       <c r="S17" s="31"/>
       <c r="T17" s="32"/>
     </row>
@@ -1387,7 +1448,7 @@
       <c r="O18" s="26"/>
       <c r="P18" s="21"/>
       <c r="Q18" s="21"/>
-      <c r="R18" s="34"/>
+      <c r="R18" s="33"/>
       <c r="S18" s="31"/>
       <c r="T18" s="32"/>
     </row>
@@ -1409,7 +1470,7 @@
       <c r="O19" s="26"/>
       <c r="P19" s="21"/>
       <c r="Q19" s="21"/>
-      <c r="R19" s="34"/>
+      <c r="R19" s="33"/>
       <c r="S19" s="31"/>
       <c r="T19" s="32"/>
     </row>
@@ -1431,7 +1492,7 @@
       <c r="O20" s="26"/>
       <c r="P20" s="21"/>
       <c r="Q20" s="21"/>
-      <c r="R20" s="34"/>
+      <c r="R20" s="33"/>
       <c r="S20" s="31"/>
       <c r="T20" s="32"/>
     </row>
@@ -1453,7 +1514,7 @@
       <c r="O21" s="26"/>
       <c r="P21" s="21"/>
       <c r="Q21" s="21"/>
-      <c r="R21" s="34"/>
+      <c r="R21" s="33"/>
       <c r="S21" s="31"/>
       <c r="T21" s="32"/>
     </row>
@@ -1475,7 +1536,7 @@
       <c r="O22" s="26"/>
       <c r="P22" s="21"/>
       <c r="Q22" s="21"/>
-      <c r="R22" s="34"/>
+      <c r="R22" s="33"/>
       <c r="S22" s="31"/>
       <c r="T22" s="32"/>
     </row>
@@ -1497,7 +1558,7 @@
       <c r="O23" s="26"/>
       <c r="P23" s="21"/>
       <c r="Q23" s="21"/>
-      <c r="R23" s="34"/>
+      <c r="R23" s="33"/>
       <c r="S23" s="31"/>
       <c r="T23" s="32"/>
     </row>
@@ -1519,7 +1580,7 @@
       <c r="O24" s="26"/>
       <c r="P24" s="21"/>
       <c r="Q24" s="21"/>
-      <c r="R24" s="34"/>
+      <c r="R24" s="33"/>
       <c r="S24" s="31"/>
       <c r="T24" s="32"/>
     </row>
@@ -1541,7 +1602,7 @@
       <c r="O25" s="26"/>
       <c r="P25" s="21"/>
       <c r="Q25" s="21"/>
-      <c r="R25" s="34"/>
+      <c r="R25" s="33"/>
       <c r="S25" s="31"/>
       <c r="T25" s="32"/>
     </row>
@@ -1563,7 +1624,7 @@
       <c r="O26" s="26"/>
       <c r="P26" s="21"/>
       <c r="Q26" s="21"/>
-      <c r="R26" s="34"/>
+      <c r="R26" s="33"/>
       <c r="S26" s="31"/>
       <c r="T26" s="32"/>
     </row>
@@ -1585,7 +1646,7 @@
       <c r="O27" s="26"/>
       <c r="P27" s="21"/>
       <c r="Q27" s="21"/>
-      <c r="R27" s="34"/>
+      <c r="R27" s="33"/>
       <c r="S27" s="31"/>
       <c r="T27" s="32"/>
     </row>
@@ -1607,7 +1668,7 @@
       <c r="O28" s="26"/>
       <c r="P28" s="21"/>
       <c r="Q28" s="21"/>
-      <c r="R28" s="34"/>
+      <c r="R28" s="33"/>
       <c r="S28" s="31"/>
       <c r="T28" s="32"/>
     </row>
@@ -1629,7 +1690,7 @@
       <c r="O29" s="26"/>
       <c r="P29" s="21"/>
       <c r="Q29" s="21"/>
-      <c r="R29" s="34"/>
+      <c r="R29" s="33"/>
       <c r="S29" s="31"/>
       <c r="T29" s="32"/>
     </row>
@@ -1651,7 +1712,7 @@
       <c r="O30" s="26"/>
       <c r="P30" s="21"/>
       <c r="Q30" s="21"/>
-      <c r="R30" s="34"/>
+      <c r="R30" s="33"/>
       <c r="S30" s="31"/>
       <c r="T30" s="32"/>
     </row>
@@ -1673,7 +1734,7 @@
       <c r="O31" s="26"/>
       <c r="P31" s="21"/>
       <c r="Q31" s="21"/>
-      <c r="R31" s="34"/>
+      <c r="R31" s="33"/>
       <c r="S31" s="31"/>
       <c r="T31" s="32"/>
     </row>
@@ -1695,7 +1756,7 @@
       <c r="O32" s="26"/>
       <c r="P32" s="21"/>
       <c r="Q32" s="21"/>
-      <c r="R32" s="34"/>
+      <c r="R32" s="33"/>
       <c r="S32" s="31"/>
       <c r="T32" s="32"/>
     </row>
@@ -1717,7 +1778,7 @@
       <c r="O33" s="26"/>
       <c r="P33" s="21"/>
       <c r="Q33" s="21"/>
-      <c r="R33" s="34"/>
+      <c r="R33" s="33"/>
       <c r="S33" s="31"/>
       <c r="T33" s="32"/>
     </row>
@@ -1739,7 +1800,7 @@
       <c r="O34" s="26"/>
       <c r="P34" s="21"/>
       <c r="Q34" s="21"/>
-      <c r="R34" s="34"/>
+      <c r="R34" s="33"/>
       <c r="S34" s="31"/>
       <c r="T34" s="32"/>
     </row>
@@ -1761,7 +1822,7 @@
       <c r="O35" s="26"/>
       <c r="P35" s="21"/>
       <c r="Q35" s="21"/>
-      <c r="R35" s="34"/>
+      <c r="R35" s="33"/>
       <c r="S35" s="31"/>
       <c r="T35" s="32"/>
     </row>
@@ -1783,7 +1844,7 @@
       <c r="O36" s="26"/>
       <c r="P36" s="21"/>
       <c r="Q36" s="21"/>
-      <c r="R36" s="34"/>
+      <c r="R36" s="33"/>
       <c r="S36" s="31"/>
       <c r="T36" s="32"/>
     </row>
@@ -1805,7 +1866,7 @@
       <c r="O37" s="26"/>
       <c r="P37" s="21"/>
       <c r="Q37" s="21"/>
-      <c r="R37" s="34"/>
+      <c r="R37" s="33"/>
       <c r="S37" s="31"/>
       <c r="T37" s="32"/>
     </row>
@@ -1827,7 +1888,7 @@
       <c r="O38" s="26"/>
       <c r="P38" s="21"/>
       <c r="Q38" s="21"/>
-      <c r="R38" s="34"/>
+      <c r="R38" s="33"/>
       <c r="S38" s="31"/>
       <c r="T38" s="32"/>
     </row>
@@ -1849,7 +1910,7 @@
       <c r="O39" s="26"/>
       <c r="P39" s="21"/>
       <c r="Q39" s="21"/>
-      <c r="R39" s="34"/>
+      <c r="R39" s="33"/>
       <c r="S39" s="31"/>
       <c r="T39" s="32"/>
     </row>
@@ -1871,7 +1932,7 @@
       <c r="O40" s="26"/>
       <c r="P40" s="21"/>
       <c r="Q40" s="21"/>
-      <c r="R40" s="34"/>
+      <c r="R40" s="33"/>
       <c r="S40" s="31"/>
       <c r="T40" s="32"/>
     </row>
@@ -5431,6 +5492,9 @@
       <c r="S214" s="22"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="L4:N4"/>
+  </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
@@ -5458,28 +5522,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
